--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value905.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value905.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.883108382598168</v>
+        <v>1.678113579750061</v>
       </c>
       <c r="B1">
-        <v>2.108983647779983</v>
+        <v>2.837880611419678</v>
       </c>
       <c r="C1">
-        <v>2.186409931235634</v>
+        <v>1.738970279693604</v>
       </c>
       <c r="D1">
-        <v>2.848775556616724</v>
+        <v>1.191162824630737</v>
       </c>
       <c r="E1">
-        <v>2.174422830570926</v>
+        <v>0.9817848205566406</v>
       </c>
     </row>
   </sheetData>
